--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_1_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,288 +417,308 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39765</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>2.070003986395053</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>0.2463110933103252</v>
+        <v>-0.3549868696899106</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>40130</v>
+        <v>39765</v>
       </c>
       <c r="B3">
+        <v>2008</v>
+      </c>
+      <c r="C3">
+        <v>0.517569958955022</v>
+      </c>
+      <c r="D3">
         <v>2009</v>
       </c>
-      <c r="C3">
-        <v>-0.5555135891318952</v>
-      </c>
-      <c r="D3">
-        <v>2010</v>
-      </c>
       <c r="E3">
-        <v>-0.1838055195049315</v>
+        <v>-5.168396053267498</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40494</v>
+        <v>40130</v>
       </c>
       <c r="B4">
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>-3.956152295564896</v>
+      </c>
+      <c r="D4">
         <v>2010</v>
       </c>
-      <c r="C4">
-        <v>0.8442071301477228</v>
-      </c>
-      <c r="D4">
-        <v>2011</v>
-      </c>
       <c r="E4">
-        <v>2.181548129993915</v>
+        <v>-1.314964327391877</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40862</v>
+        <v>40494</v>
       </c>
       <c r="B5">
+        <v>2010</v>
+      </c>
+      <c r="C5">
+        <v>1.234995474941392</v>
+      </c>
+      <c r="D5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>1.122475521884692</v>
-      </c>
-      <c r="D5">
-        <v>2012</v>
-      </c>
       <c r="E5">
-        <v>0.3268277646568007</v>
+        <v>1.001424185348321</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>41228</v>
+        <v>40862</v>
       </c>
       <c r="B6">
+        <v>2011</v>
+      </c>
+      <c r="C6">
+        <v>0.899360810820804</v>
+      </c>
+      <c r="D6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>-0.578174579726376</v>
-      </c>
-      <c r="D6">
-        <v>2013</v>
-      </c>
       <c r="E6">
-        <v>-0.9222466685191666</v>
+        <v>0.475544341751033</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41592</v>
+        <v>41228</v>
       </c>
       <c r="B7">
+        <v>2012</v>
+      </c>
+      <c r="C7">
+        <v>0.9010266119894084</v>
+      </c>
+      <c r="D7">
         <v>2013</v>
       </c>
-      <c r="C7">
-        <v>-0.7492845378401558</v>
-      </c>
-      <c r="D7">
-        <v>2014</v>
-      </c>
       <c r="E7">
-        <v>0.02498126405197088</v>
+        <v>1.506358095275817</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41957</v>
+        <v>41592</v>
       </c>
       <c r="B8">
+        <v>2013</v>
+      </c>
+      <c r="C8">
+        <v>0.02019328874804938</v>
+      </c>
+      <c r="D8">
         <v>2014</v>
       </c>
-      <c r="C8">
-        <v>0.2751437421933511</v>
-      </c>
-      <c r="D8">
-        <v>2015</v>
-      </c>
       <c r="E8">
-        <v>0.04997501249375258</v>
+        <v>-1.194807813319188</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>42321</v>
+        <v>41957</v>
       </c>
       <c r="B9">
+        <v>2014</v>
+      </c>
+      <c r="C9">
+        <v>0.1729981757035093</v>
+      </c>
+      <c r="D9">
         <v>2015</v>
       </c>
-      <c r="C9">
-        <v>0.07468705617190707</v>
-      </c>
-      <c r="D9">
-        <v>2016</v>
-      </c>
       <c r="E9">
-        <v>0.1747565356599701</v>
+        <v>0.6265079396372775</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42689</v>
+        <v>42321</v>
       </c>
       <c r="B10">
+        <v>2015</v>
+      </c>
+      <c r="C10">
+        <v>0.09752710595589686</v>
+      </c>
+      <c r="D10">
         <v>2016</v>
       </c>
-      <c r="C10">
-        <v>-0.05493014849097255</v>
-      </c>
-      <c r="D10">
-        <v>2017</v>
-      </c>
       <c r="E10">
-        <v>0.3755441235464119</v>
+        <v>-1.022506370243093</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>43053</v>
+        <v>42689</v>
       </c>
       <c r="B11">
+        <v>2016</v>
+      </c>
+      <c r="C11">
+        <v>-0.5280591151586633</v>
+      </c>
+      <c r="D11">
         <v>2017</v>
       </c>
-      <c r="C11">
-        <v>0.2820931576894115</v>
-      </c>
-      <c r="D11">
-        <v>2018</v>
-      </c>
       <c r="E11">
-        <v>0.4682381790083401</v>
+        <v>-0.7240982069264934</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43418</v>
+        <v>43053</v>
       </c>
       <c r="B12">
+        <v>2017</v>
+      </c>
+      <c r="C12">
+        <v>0.07201851318385799</v>
+      </c>
+      <c r="D12">
         <v>2018</v>
       </c>
-      <c r="C12">
-        <v>0.2343541283920114</v>
-      </c>
-      <c r="D12">
-        <v>2019</v>
-      </c>
       <c r="E12">
-        <v>0.632386719657041</v>
+        <v>1.255028673974046</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43783</v>
+        <v>43418</v>
       </c>
       <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13">
+        <v>0.3727661260635617</v>
+      </c>
+      <c r="D13">
         <v>2019</v>
       </c>
-      <c r="C13">
-        <v>-0.009430310228020211</v>
-      </c>
-      <c r="D13">
-        <v>2020</v>
-      </c>
       <c r="E13">
-        <v>0.01640838460643668</v>
+        <v>-3.305525567352929</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>44159</v>
+        <v>43783</v>
       </c>
       <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>-0.801759526476209</v>
+      </c>
+      <c r="D14">
         <v>2020</v>
       </c>
-      <c r="C14">
-        <v>-2.657403949513992</v>
-      </c>
-      <c r="D14">
-        <v>2021</v>
-      </c>
       <c r="E14">
-        <v>-0.3515524878755283</v>
+        <v>1.431264289671219</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44525</v>
+        <v>44159</v>
       </c>
       <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15">
+        <v>-1.103489789942047</v>
+      </c>
+      <c r="D15">
         <v>2021</v>
       </c>
-      <c r="C15">
-        <v>-0.3096364143617802</v>
-      </c>
-      <c r="D15">
-        <v>2022</v>
-      </c>
       <c r="E15">
-        <v>0.1125542966198934</v>
+        <v>2.294626310579817</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44890</v>
+        <v>44525</v>
       </c>
       <c r="B16">
+        <v>2021</v>
+      </c>
+      <c r="C16">
+        <v>0.9704846793491928</v>
+      </c>
+      <c r="D16">
         <v>2022</v>
       </c>
-      <c r="C16">
-        <v>-0.1730430455425092</v>
-      </c>
-      <c r="D16">
-        <v>2023</v>
-      </c>
       <c r="E16">
-        <v>1.489856644538934</v>
+        <v>-0.902682013141165</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45254</v>
+        <v>44890</v>
       </c>
       <c r="B17">
+        <v>2022</v>
+      </c>
+      <c r="C17">
+        <v>-0.7009264669202708</v>
+      </c>
+      <c r="D17">
         <v>2023</v>
       </c>
-      <c r="C17">
-        <v>0.6376744206510576</v>
-      </c>
-      <c r="D17">
-        <v>2024</v>
-      </c>
       <c r="E17">
-        <v>0.2360225714758357</v>
+        <v>1.220523709718857</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B18">
+        <v>2023</v>
+      </c>
+      <c r="C18">
+        <v>0.3928252664241905</v>
+      </c>
+      <c r="D18">
+        <v>2024</v>
+      </c>
+      <c r="E18">
+        <v>0.4517021897791018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>45618</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>2024</v>
       </c>
-      <c r="C18">
-        <v>0.1856341247700399</v>
-      </c>
-      <c r="D18">
+      <c r="C19">
+        <v>0.3224026462283813</v>
+      </c>
+      <c r="D19">
         <v>2025</v>
       </c>
-      <c r="E18">
-        <v>0.2771254531272804</v>
+      <c r="E19">
+        <v>-0.7185940249203049</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_1_9_winter.xlsx
@@ -650,7 +650,7 @@
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>2.294626310579817</v>
+        <v>11.45073880931151</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,7 +667,7 @@
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>-0.902682013141165</v>
+        <v>-1.172596637408208</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -684,7 +684,7 @@
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>1.220523709718857</v>
+        <v>-0.7503547445245062</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -701,7 +701,7 @@
         <v>2024</v>
       </c>
       <c r="E18">
-        <v>0.4517021897791018</v>
+        <v>0.6491745797315707</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -718,7 +718,7 @@
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>-0.7185940249203049</v>
+        <v>-3.037731958703727</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_1_9_winter.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>2.070003986395053</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>-0.3549868696899106</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>0.517569958955022</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>-5.168396053267498</v>
+        <v>-5.168396053267521</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +448,7 @@
         <v>2009</v>
       </c>
       <c r="C4">
-        <v>-3.956152295564896</v>
+        <v>-3.956152295564885</v>
       </c>
       <c r="D4">
         <v>2010</v>
@@ -474,7 +465,7 @@
         <v>2010</v>
       </c>
       <c r="C5">
-        <v>1.234995474941392</v>
+        <v>1.234995474941436</v>
       </c>
       <c r="D5">
         <v>2011</v>
@@ -491,13 +482,13 @@
         <v>2011</v>
       </c>
       <c r="C6">
-        <v>0.899360810820804</v>
+        <v>0.8993608108207818</v>
       </c>
       <c r="D6">
         <v>2012</v>
       </c>
       <c r="E6">
-        <v>0.475544341751033</v>
+        <v>0.4755443417510108</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -525,13 +516,13 @@
         <v>2013</v>
       </c>
       <c r="C8">
-        <v>0.02019328874804938</v>
+        <v>0.02019328874802717</v>
       </c>
       <c r="D8">
         <v>2014</v>
       </c>
       <c r="E8">
-        <v>-1.194807813319188</v>
+        <v>-1.194807813319176</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -565,7 +556,7 @@
         <v>2016</v>
       </c>
       <c r="E10">
-        <v>-1.022506370243093</v>
+        <v>-1.02250637024307</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -582,7 +573,7 @@
         <v>2017</v>
       </c>
       <c r="E11">
-        <v>-0.7240982069264934</v>
+        <v>-0.7240982069265045</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -593,13 +584,13 @@
         <v>2017</v>
       </c>
       <c r="C12">
-        <v>0.07201851318385799</v>
+        <v>0.0720185131838802</v>
       </c>
       <c r="D12">
         <v>2018</v>
       </c>
       <c r="E12">
-        <v>1.255028673974046</v>
+        <v>1.255028673974068</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -616,7 +607,7 @@
         <v>2019</v>
       </c>
       <c r="E13">
-        <v>-3.305525567352929</v>
+        <v>-3.305525567352907</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,7 +618,7 @@
         <v>2019</v>
       </c>
       <c r="C14">
-        <v>-0.801759526476209</v>
+        <v>-0.8017595264762423</v>
       </c>
       <c r="D14">
         <v>2020</v>
@@ -650,7 +641,7 @@
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>11.45073880931151</v>
+        <v>11.45073880931156</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +652,13 @@
         <v>2021</v>
       </c>
       <c r="C16">
-        <v>0.9704846793491928</v>
+        <v>0.9704846793491706</v>
       </c>
       <c r="D16">
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>-1.172596637408208</v>
+        <v>-1.172596637408219</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -695,7 +686,7 @@
         <v>2023</v>
       </c>
       <c r="C18">
-        <v>0.3928252664241905</v>
+        <v>0.3928252664241683</v>
       </c>
       <c r="D18">
         <v>2024</v>
@@ -712,13 +703,13 @@
         <v>2024</v>
       </c>
       <c r="C19">
-        <v>0.3224026462283813</v>
+        <v>0.3224026462283369</v>
       </c>
       <c r="D19">
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>-3.037731958703727</v>
+        <v>-3.037731958703715</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_1_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,6 +712,23 @@
         <v>-3.037731958703715</v>
       </c>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B20">
+        <v>2025</v>
+      </c>
+      <c r="C20">
+        <v>-2.06674933094535</v>
+      </c>
+      <c r="D20">
+        <v>2026</v>
+      </c>
+      <c r="E20">
+        <v>-1.12081074591468</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
